--- a/DOC/HistoriasdeUsuario.xlsx
+++ b/DOC/HistoriasdeUsuario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t xml:space="preserve">Toda la explicación en http://urtanta.com/historias-de-usuario/</t>
   </si>
@@ -150,7 +150,60 @@
     <t xml:space="preserve">HU008</t>
   </si>
   <si>
-    <t xml:space="preserve">Como operador quiero poder las imágenes para que el cliente las pueda visualizar</t>
+    <t xml:space="preserve">Como operador quiero poder subir las imágenes para que el cliente las pueda visualizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Deben ser imágenes jpg y gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador de la aplicación quiero que mi aplicación tenga 3 roles de acceso, administrador, cliente y operador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Los operadores no pueden ver las galerías de imágenes
+- Los clientes solo pueden ver las imágenes de su empresa
+- Los clientes no pueden ver el módulo de subir imágenes
+- Las imágenes deben estar organizadas en una galería
+- Cada empresa debe tener un dashboard de resumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como operador debo tener un módulo en la aplicación para actualizar mi perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- El operador podrá actualizar su pefil según cuántos campos se necesiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador quiero un módulo para crear usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Deben aparecer los usuarios en una tabla y debe haber un formulario de ingresar un nuevo usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario puedo ver los precios y planes de la compañía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- se deben mostrar en una sola página y debe redirigir a otra página para poder pagarlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como cliente quiero poder pagar de forma online mi plan con la empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Se puede pagar con tarjeta débito y crédito
+- Como cliente quiero recibir mi factura electrónica después del pago</t>
   </si>
   <si>
     <t xml:space="preserve">Puntos</t>
@@ -218,7 +271,7 @@
     <t xml:space="preserve">SPRINT 3 FECHA: 23 Abril – 06 Mayo</t>
   </si>
   <si>
-    <t xml:space="preserve">SPRINT 4 FECHA: 13 Abril – 22 Abril</t>
+    <t xml:space="preserve">SPRINT 4 FECHA: 07 Mayo – 22 Mayo</t>
   </si>
   <si>
     <t xml:space="preserve">Más información en http://urtanta.com/scrum-sprint/</t>
@@ -231,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve">Puntos en sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntos Ejecutados</t>
   </si>
   <si>
     <t xml:space="preserve">Pendientes</t>
@@ -469,7 +525,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -490,16 +546,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -511,27 +563,43 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -550,10 +618,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,7 +651,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -583,10 +667,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -603,7 +683,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -611,7 +691,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -692,7 +772,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -779,21 +859,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$D$3:$D$12</c:f>
+              <c:f>Burndown!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v/>
@@ -823,7 +903,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Burndown!$E$2:$E$2</c:f>
+              <c:f>Burndown!$F$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -896,21 +976,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$E$3:$E$12</c:f>
+              <c:f>Burndown!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34.2</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.4</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v/>
@@ -943,11 +1023,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="60882200"/>
-        <c:axId val="26756449"/>
+        <c:axId val="56959585"/>
+        <c:axId val="56181140"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60882200"/>
+        <c:axId val="56959585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,14 +1059,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26756449"/>
+        <c:crossAx val="56181140"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26756449"/>
+        <c:axId val="56181140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1108,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60882200"/>
+        <c:crossAx val="56959585"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1083,16 +1163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26640</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>711360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1100,8 +1180,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9587880" y="450720"/>
-        <a:ext cx="7828200" cy="4939560"/>
+        <a:off x="10765440" y="431640"/>
+        <a:ext cx="7827840" cy="4939200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1119,20 +1199,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="31.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -1145,411 +1226,453 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(F3:F15)</f>
-        <v>69</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="65.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="234" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="61.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="50.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F14" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="106.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19" t="n">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="19" t="n">
+      <c r="C23" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="19" t="n">
+      <c r="B24" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="19" t="n">
+      <c r="C24" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="19" t="n">
+      <c r="B25" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="19" t="n">
+      <c r="C25" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="19" t="n">
+      <c r="B26" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="C26" s="19" t="n">
+      <c r="C26" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="19" t="n">
+      <c r="B27" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="C27" s="19" t="n">
+      <c r="C27" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="19" t="n">
+      <c r="B28" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="C28" s="19" t="n">
+      <c r="C28" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="9" t="n">
+      <c r="B32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="9"/>
-    </row>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="Toda la explicación en http://urtanta.com/historias-de-usuario/"/>
@@ -1569,316 +1692,436 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="42.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="21" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="21.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="42.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="26" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="26" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="26" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="26" t="str">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A3</f>
         <v>HU001</v>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B3</f>
         <v>Como cliente necesito que mis datos tengan persistencia y sean seguros</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="29" t="n">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E3</f>
         <v>8</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="str">
+      <c r="A6" s="27"/>
+      <c r="B6" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A4</f>
         <v>HU002</v>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B4</f>
         <v>Como administrador de la aplicación necesito que el trabajo tenga un orden de ejecución</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="29" t="n">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E4</f>
         <v>3</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="26" t="str">
+      <c r="A7" s="27"/>
+      <c r="B7" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A5</f>
         <v>HU003</v>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B5</f>
         <v>Como cliente quiero ver la página web de la compañía con servicios, quienes somos, ingresar, contacto y slider principal.</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="29" t="n">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E5</f>
         <v>8</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26" t="str">
+      <c r="A8" s="27"/>
+      <c r="B8" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A6</f>
         <v>HU004</v>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B6</f>
         <v>Como cliente quiero ingresar a la aplicación de administración.</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="29" t="n">
+      <c r="D8" s="33"/>
+      <c r="E8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E6</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="22"/>
+      <c r="H8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26" t="str">
+      <c r="A9" s="27"/>
+      <c r="B9" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A7</f>
         <v>HU005</v>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B7</f>
         <v>Como cliente quiero registrarme en la aplicación para poder logearme.</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="29" t="n">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E7</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26" t="str">
+      <c r="A10" s="27"/>
+      <c r="B10" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A8</f>
         <v>HU006</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B8</f>
         <v>Como cliente quiero poder ingresar con mi usuario y contraseña al área de administración</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="29" t="n">
+      <c r="D10" s="33"/>
+      <c r="E10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E8</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26" t="str">
+      <c r="A11" s="27"/>
+      <c r="B11" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A9</f>
         <v>HU007</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B9</f>
         <v>Como cliente quiero ver mis imágenes en un módulo de forma organizada</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="29" t="n">
+      <c r="D11" s="33"/>
+      <c r="E11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E9</f>
         <v>8</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="22"/>
+      <c r="H11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="26" t="str">
+      <c r="A12" s="27"/>
+      <c r="B12" s="31" t="str">
         <f aca="false">'Historias de Usuario'!A10</f>
         <v>HU008</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="32" t="str">
         <f aca="false">'Historias de Usuario'!B10</f>
-        <v>Como operador quiero poder las imágenes para que el cliente las pueda visualizar</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="29" t="n">
+        <v>Como operador quiero poder subir las imágenes para que el cliente las pueda visualizar</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="35" t="n">
         <f aca="false">'Historias de Usuario'!E10</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="H12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A11</f>
+        <v>HU009</v>
+      </c>
+      <c r="C13" s="32" t="str">
+        <f aca="false">'Historias de Usuario'!B11</f>
+        <v>Como administrador de la aplicación quiero que mi aplicación tenga 3 roles de acceso, administrador, cliente y operador</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E11</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A12</f>
+        <v>HU010</v>
+      </c>
+      <c r="C14" s="32" t="str">
+        <f aca="false">'Historias de Usuario'!B12</f>
+        <v>Como operador debo tener un módulo en la aplicación para actualizar mi perfil</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E12</f>
+        <v>13</v>
+      </c>
+      <c r="G14" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A13</f>
+        <v>HU011</v>
+      </c>
+      <c r="C15" s="32" t="str">
+        <f aca="false">'Historias de Usuario'!B13</f>
+        <v>Como administrador quiero un módulo para crear usuarios</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E13</f>
+        <v>13</v>
+      </c>
+      <c r="G15" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A14</f>
+        <v>HU012</v>
+      </c>
+      <c r="C16" s="32" t="str">
+        <f aca="false">'Historias de Usuario'!B14</f>
+        <v>Como usuario puedo ver los precios y planes de la compañía</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E14</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A15</f>
+        <v>HU013</v>
+      </c>
+      <c r="C17" s="32" t="str">
+        <f aca="false">'Historias de Usuario'!B15</f>
+        <v>Como cliente quiero poder pagar de forma online mi plan con la empresa</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E15</f>
+        <v>21</v>
+      </c>
+      <c r="G17" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="33"/>
+    </row>
     <row r="18" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1897,160 +2140,160 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="21" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="21.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="26" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="26" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="26" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="26" t="str">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="str">
         <f aca="false">'Product Backlog'!B5</f>
         <v>HU001</v>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="32" t="str">
         <f aca="false">'Product Backlog'!C5</f>
         <v>Como cliente necesito que mis datos tengan persistencia y sean seguros</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="29" t="n">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="35" t="n">
         <f aca="false">'Product Backlog'!F5</f>
         <v>8</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="str">
+      <c r="A6" s="27"/>
+      <c r="B6" s="31" t="str">
         <f aca="false">'Product Backlog'!B6</f>
         <v>HU002</v>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="32" t="str">
         <f aca="false">'Product Backlog'!C6</f>
         <v>Como administrador de la aplicación necesito que el trabajo tenga un orden de ejecución</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="29" t="n">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="35" t="n">
         <f aca="false">'Product Backlog'!F6</f>
         <v>3</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="32" t="n">
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="38" t="n">
         <f aca="false">SUM(F5:F6)</f>
         <v>11</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="22"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2083,242 +2326,216 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="21" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="21.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="26" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="26" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="26" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="26" t="str">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="str">
         <f aca="false">'Product Backlog'!B7</f>
         <v>HU003</v>
       </c>
-      <c r="C5" s="33" t="str">
-        <f aca="false">'Product Backlog'!C11</f>
-        <v>Como cliente quiero ver mis imágenes en un módulo de forma organizada</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <f aca="false">'Product Backlog'!F5</f>
+      <c r="C5" s="39" t="str">
+        <f aca="false">'Product Backlog'!C7</f>
+        <v>Como cliente quiero ver la página web de la compañía con servicios, quienes somos, ingresar, contacto y slider principal.</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E5</f>
         <v>8</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="str">
+      <c r="A6" s="27"/>
+      <c r="B6" s="31" t="str">
         <f aca="false">'Product Backlog'!B8</f>
         <v>HU004</v>
       </c>
-      <c r="C6" s="27" t="str">
-        <f aca="false">'Product Backlog'!C6</f>
-        <v>Como administrador de la aplicación necesito que el trabajo tenga un orden de ejecución</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="29" t="n">
-        <f aca="false">'Product Backlog'!F6</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="29" t="n">
+      <c r="C6" s="39" t="str">
+        <f aca="false">'Product Backlog'!C8</f>
+        <v>Como cliente quiero ingresar a la aplicación de administración.</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E6</f>
+        <v>13</v>
+      </c>
+      <c r="G6" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="26" t="str">
+      <c r="A7" s="27"/>
+      <c r="B7" s="31" t="str">
         <f aca="false">'Product Backlog'!B9</f>
         <v>HU005</v>
       </c>
-      <c r="C7" s="27" t="str">
-        <f aca="false">'Product Backlog'!C7</f>
-        <v>Como cliente quiero ver la página web de la compañía con servicios, quienes somos, ingresar, contacto y slider principal.</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="29" t="n">
-        <f aca="false">'Product Backlog'!F7</f>
+      <c r="C7" s="39" t="str">
+        <f aca="false">'Product Backlog'!C9</f>
+        <v>Como cliente quiero registrarme en la aplicación para poder logearme.</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E7</f>
         <v>8</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26" t="str">
+      <c r="A8" s="27"/>
+      <c r="B8" s="31" t="str">
         <f aca="false">'Product Backlog'!B10</f>
         <v>HU006</v>
       </c>
-      <c r="C8" s="27" t="str">
-        <f aca="false">'Product Backlog'!C8</f>
-        <v>Como cliente quiero ingresar a la aplicación de administración.</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="29" t="n">
-        <f aca="false">'Product Backlog'!F8</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="29" t="n">
+      <c r="C8" s="39" t="str">
+        <f aca="false">'Product Backlog'!C10</f>
+        <v>Como cliente quiero poder ingresar con mi usuario y contraseña al área de administración</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E8</f>
+        <v>13</v>
+      </c>
+      <c r="G8" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="22"/>
+      <c r="H8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26" t="str">
-        <f aca="false">'Product Backlog'!B11</f>
-        <v>HU007</v>
-      </c>
-      <c r="C9" s="27" t="str">
-        <f aca="false">'Product Backlog'!C9</f>
-        <v>Como cliente quiero registrarme en la aplicación para poder logearme.</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="29" t="n">
-        <f aca="false">'Product Backlog'!F9</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="32" t="n">
-        <f aca="false">SUM(F5:F9)</f>
-        <v>27</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="22"/>
-    </row>
+      <c r="A9" s="27"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="38" t="n">
+        <f aca="false">SUM(F5:F8)</f>
+        <v>42</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2327,7 +2544,7 @@
     <row r="16" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2345,271 +2562,219 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="21" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="21.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="26" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="26" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="26" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="26" t="str">
-        <f aca="false">'Product Backlog'!B5</f>
-        <v>HU001</v>
-      </c>
-      <c r="C5" s="27" t="str">
-        <f aca="false">'Product Backlog'!C5</f>
-        <v>Como cliente necesito que mis datos tengan persistencia y sean seguros</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <f aca="false">'Product Backlog'!F5</f>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="str">
+        <f aca="false">'Product Backlog'!B11</f>
+        <v>HU007</v>
+      </c>
+      <c r="C5" s="32" t="str">
+        <f aca="false">'Product Backlog'!C11</f>
+        <v>Como cliente quiero ver mis imágenes en un módulo de forma organizada</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E9</f>
         <v>8</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="str">
-        <f aca="false">'Product Backlog'!B6</f>
-        <v>HU002</v>
-      </c>
-      <c r="C6" s="27" t="str">
-        <f aca="false">'Product Backlog'!C6</f>
-        <v>Como administrador de la aplicación necesito que el trabajo tenga un orden de ejecución</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="29" t="n">
-        <f aca="false">'Product Backlog'!F6</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="29" t="n">
+      <c r="A6" s="27"/>
+      <c r="B6" s="31" t="str">
+        <f aca="false">'Product Backlog'!B12</f>
+        <v>HU008</v>
+      </c>
+      <c r="C6" s="32" t="str">
+        <f aca="false">'Product Backlog'!C12</f>
+        <v>Como operador quiero poder subir las imágenes para que el cliente las pueda visualizar</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E10</f>
+        <v>13</v>
+      </c>
+      <c r="G6" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="26" t="str">
-        <f aca="false">'Product Backlog'!B7</f>
-        <v>HU003</v>
-      </c>
-      <c r="C7" s="27" t="str">
-        <f aca="false">'Product Backlog'!C7</f>
-        <v>Como cliente quiero ver la página web de la compañía con servicios, quienes somos, ingresar, contacto y slider principal.</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="29" t="n">
-        <f aca="false">'Product Backlog'!F7</f>
+      <c r="A7" s="27"/>
+      <c r="B7" s="31" t="str">
+        <f aca="false">'Product Backlog'!B13</f>
+        <v>HU009</v>
+      </c>
+      <c r="C7" s="32" t="str">
+        <f aca="false">'Product Backlog'!C13</f>
+        <v>Como administrador de la aplicación quiero que mi aplicación tenga 3 roles de acceso, administrador, cliente y operador</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E11</f>
         <v>8</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26" t="str">
-        <f aca="false">'Product Backlog'!B8</f>
-        <v>HU004</v>
-      </c>
-      <c r="C8" s="27" t="str">
-        <f aca="false">'Product Backlog'!C8</f>
-        <v>Como cliente quiero ingresar a la aplicación de administración.</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="29" t="n">
-        <f aca="false">'Product Backlog'!F8</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="29" t="n">
+      <c r="A8" s="27"/>
+      <c r="B8" s="31" t="str">
+        <f aca="false">'Product Backlog'!B14</f>
+        <v>HU010</v>
+      </c>
+      <c r="C8" s="32" t="str">
+        <f aca="false">'Product Backlog'!C14</f>
+        <v>Como operador debo tener un módulo en la aplicación para actualizar mi perfil</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E12</f>
+        <v>13</v>
+      </c>
+      <c r="G8" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="22"/>
+      <c r="H8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26" t="str">
-        <f aca="false">'Product Backlog'!B9</f>
-        <v>HU005</v>
-      </c>
-      <c r="C9" s="27" t="str">
-        <f aca="false">'Product Backlog'!C9</f>
-        <v>Como cliente quiero registrarme en la aplicación para poder logearme.</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="29" t="n">
-        <f aca="false">'Product Backlog'!F9</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26" t="str">
-        <f aca="false">'Product Backlog'!B10</f>
-        <v>HU006</v>
-      </c>
-      <c r="C10" s="27" t="str">
-        <f aca="false">'Product Backlog'!C10</f>
-        <v>Como cliente quiero poder ingresar con mi usuario y contraseña al área de administración</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="29" t="n">
-        <f aca="false">'Product Backlog'!F10</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="32" t="n">
-        <f aca="false">SUM(F5:F10)</f>
-        <v>30</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="22"/>
-    </row>
+      <c r="A9" s="27"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="38" t="n">
+        <f aca="false">SUM(F5:F8)</f>
+        <v>42</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2617,8 +2782,8 @@
     <row r="16" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2635,280 +2800,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="21" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="21" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="21.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="26" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="26" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="26" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="26" t="str">
-        <f aca="false">'Product Backlog'!B5</f>
-        <v>HU001</v>
-      </c>
-      <c r="C5" s="27" t="str">
-        <f aca="false">'Product Backlog'!C5</f>
-        <v>Como cliente necesito que mis datos tengan persistencia y sean seguros</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <f aca="false">'Product Backlog'!F5</f>
-        <v>8</v>
-      </c>
-      <c r="G5" s="29" t="n">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A13</f>
+        <v>HU011</v>
+      </c>
+      <c r="C5" s="32" t="str">
+        <f aca="false">'Product Backlog'!C15</f>
+        <v>Como administrador quiero un módulo para crear usuarios</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E13</f>
+        <v>13</v>
+      </c>
+      <c r="G5" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="str">
-        <f aca="false">'Product Backlog'!B6</f>
-        <v>HU002</v>
-      </c>
-      <c r="C6" s="27" t="str">
-        <f aca="false">'Product Backlog'!C6</f>
-        <v>Como administrador de la aplicación necesito que el trabajo tenga un orden de ejecución</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="29" t="n">
-        <f aca="false">'Product Backlog'!F6</f>
+      <c r="A6" s="27"/>
+      <c r="B6" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A14</f>
+        <v>HU012</v>
+      </c>
+      <c r="C6" s="32" t="str">
+        <f aca="false">'Product Backlog'!C16</f>
+        <v>Como usuario puedo ver los precios y planes de la compañía</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E14</f>
         <v>3</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="26" t="str">
-        <f aca="false">'Product Backlog'!B7</f>
-        <v>HU003</v>
-      </c>
-      <c r="C7" s="27" t="str">
-        <f aca="false">'Product Backlog'!C7</f>
-        <v>Como cliente quiero ver la página web de la compañía con servicios, quienes somos, ingresar, contacto y slider principal.</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="29" t="n">
-        <f aca="false">'Product Backlog'!F7</f>
-        <v>8</v>
-      </c>
-      <c r="G7" s="29" t="n">
+      <c r="A7" s="27"/>
+      <c r="B7" s="31" t="str">
+        <f aca="false">'Historias de Usuario'!A15</f>
+        <v>HU013</v>
+      </c>
+      <c r="C7" s="32" t="str">
+        <f aca="false">'Product Backlog'!C17</f>
+        <v>Como cliente quiero poder pagar de forma online mi plan con la empresa</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="35" t="n">
+        <f aca="false">'Historias de Usuario'!E15</f>
+        <v>21</v>
+      </c>
+      <c r="G7" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26" t="str">
-        <f aca="false">'Product Backlog'!B8</f>
-        <v>HU004</v>
-      </c>
-      <c r="C8" s="27" t="str">
-        <f aca="false">'Product Backlog'!C8</f>
-        <v>Como cliente quiero ingresar a la aplicación de administración.</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="29" t="n">
-        <f aca="false">'Product Backlog'!F8</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26" t="str">
-        <f aca="false">'Product Backlog'!B9</f>
-        <v>HU005</v>
-      </c>
-      <c r="C9" s="27" t="str">
-        <f aca="false">'Product Backlog'!C9</f>
-        <v>Como cliente quiero registrarme en la aplicación para poder logearme.</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="29" t="n">
-        <f aca="false">'Product Backlog'!F9</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26" t="str">
-        <f aca="false">'Product Backlog'!B10</f>
-        <v>HU006</v>
-      </c>
-      <c r="C10" s="27" t="str">
-        <f aca="false">'Product Backlog'!C10</f>
-        <v>Como cliente quiero poder ingresar con mi usuario y contraseña al área de administración</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="29" t="n">
-        <f aca="false">'Product Backlog'!F10</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="32" t="n">
-        <f aca="false">SUM(F5:F10)</f>
-        <v>30</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="22"/>
-    </row>
+      <c r="A8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="38" t="n">
+        <f aca="false">SUM(F5:F7)</f>
+        <v>37</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2925,132 +3014,147 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="36" t="n">
+      <c r="A3" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="42" t="n">
         <f aca="false">Sprint1!F7</f>
         <v>11</v>
       </c>
-      <c r="D3" s="36" t="n">
+      <c r="D3" s="42" t="n">
         <v>11</v>
       </c>
-      <c r="E3" s="36" t="n">
-        <f aca="false">F3-($F$3/4)</f>
-        <v>28.5</v>
-      </c>
-      <c r="F3" s="35" t="n">
+      <c r="E3" s="42" t="n">
+        <f aca="false">$G$3-D3</f>
+        <v>121</v>
+      </c>
+      <c r="F3" s="42" t="n">
+        <f aca="false">G3-($G$3/4)</f>
+        <v>99</v>
+      </c>
+      <c r="G3" s="41" t="n">
         <f aca="false">SUM('Historias de Usuario'!E3:E19)</f>
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="36" t="n">
-        <f aca="false">Sprint2!F10</f>
-        <v>27</v>
-      </c>
-      <c r="D4" s="36" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" s="36" t="n">
-        <f aca="false">E3-($F$3/4)</f>
-        <v>19</v>
+      <c r="A4" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="42" t="n">
+        <f aca="false">Sprint2!F9</f>
+        <v>42</v>
+      </c>
+      <c r="D4" s="42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" s="42" t="n">
+        <f aca="false">$E$3-D4</f>
+        <v>79</v>
+      </c>
+      <c r="F4" s="42" t="n">
+        <f aca="false">F3-($G$3/4)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="36" t="n">
-        <f aca="false">Sprint3!F11</f>
-        <v>30</v>
-      </c>
-      <c r="D5" s="36" t="n">
-        <v>30</v>
-      </c>
-      <c r="E5" s="36" t="n">
-        <f aca="false">E4-($F$3/4)</f>
-        <v>9.5</v>
+      <c r="A5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="42" t="n">
+        <f aca="false">Sprint3!F9</f>
+        <v>42</v>
+      </c>
+      <c r="D5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42" t="n">
+        <f aca="false">$E$4-D5</f>
+        <v>79</v>
+      </c>
+      <c r="F5" s="42" t="n">
+        <f aca="false">F4-($G$3/4)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="36" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" s="36" t="n">
+      <c r="A6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="42" t="n">
+        <f aca="false">Sprint4!F8</f>
+        <v>37</v>
+      </c>
+      <c r="D6" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="36" t="n">
-        <f aca="false">E5-($F$3/4)</f>
+      <c r="E6" s="42" t="n">
+        <f aca="false">$E$5-D6</f>
+        <v>79</v>
+      </c>
+      <c r="F6" s="42" t="n">
+        <f aca="false">F5-($G$3/4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="Más información en http://urtanta.com/scrum-sprint/"/>
